--- a/CH4/EOS_02_CH4_2021-06-22.xlsx
+++ b/CH4/EOS_02_CH4_2021-06-22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/CH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E08BDB0D-19C5-42BD-B51E-85BC708CD070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{E08BDB0D-19C5-42BD-B51E-85BC708CD070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7FA3504-E93F-4959-82F2-FDDF1F434A7F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{26B8FF07-E3DC-4DB3-ACCE-19BFB36C13DA}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>ANT</t>
+    <t>Ant</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34FCE95-B085-4727-BB61-9D874F3996C6}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
